--- a/biology/Médecine/Tympan_humain/Tympan_humain.xlsx
+++ b/biology/Médecine/Tympan_humain/Tympan_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, le tympan est une membrane fibreuse séparant l'oreille externe et l'oreille moyenne. Le tympan est chargé de récolter les vibrations dues aux sons arrivant par le conduit auditif externe, et de les transmettre à la chaîne ossiculaire.
 </t>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-Le tympan a une forme arrondie légèrement plus étroite dans le sens antéropostérieur (sa hauteur est en moyenne de 10 mm sa largeur de 8 mm). Il n'est pas dans un plan sagittal mais regarde en avant en bas et en dehors.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tympan a une forme arrondie légèrement plus étroite dans le sens antéropostérieur (sa hauteur est en moyenne de 10 mm sa largeur de 8 mm). Il n'est pas dans un plan sagittal mais regarde en avant en bas et en dehors.
 De ce fait, il a une surface plus grande que la section du conduit auditif externe, soit environ 60 mm2. Le tympan n'est pas une membrane plane, mais a une forme de cône, dont le sommet, correspondant à l'ombilic du marteau, est déprimé vers l'intérieur de 2 mm par rapport aux bords.
-Le tympan normal peut parfois présenter une vasodilatation (dilatation des vaisseaux sanguins) qui est la conséquence du réflexe rouge provoqué par une stimulation du conduit auditif externe[1].
-Insertion
-Le tympan s’insère dans le sillon tympanique (sulcus) par l’intermédiaire d’un bourrelet fibreux annulaire dit de Gerlach. Cet anneau, au niveau de l’échancrure de Rivinus, s’insère sur la courte apophyse du marteau en donnant les ligaments tympano-malléolaire antérieur et postérieur.
+Le tympan normal peut parfois présenter une vasodilatation (dilatation des vaisseaux sanguins) qui est la conséquence du réflexe rouge provoqué par une stimulation du conduit auditif externe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tympan_humain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tympan_humain</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Insertion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tympan s’insère dans le sillon tympanique (sulcus) par l’intermédiaire d’un bourrelet fibreux annulaire dit de Gerlach. Cet anneau, au niveau de l’échancrure de Rivinus, s’insère sur la courte apophyse du marteau en donnant les ligaments tympano-malléolaire antérieur et postérieur.
 </t>
         </is>
       </c>
